--- a/SMDB.xlsx
+++ b/SMDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>YoneticiTurleri</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Uye_ID</t>
   </si>
   <si>
-    <t>Kategori_ID</t>
-  </si>
-  <si>
     <t>EklemeTarihi</t>
   </si>
   <si>
@@ -163,21 +160,12 @@
     <t>MuzikTurler</t>
   </si>
   <si>
-    <t>OylanmaSayısı</t>
-  </si>
-  <si>
     <t>KapakFoto</t>
   </si>
   <si>
     <t>Haberler</t>
   </si>
   <si>
-    <t>Dinledim</t>
-  </si>
-  <si>
-    <t>DinlemeyiPlanlıyorum</t>
-  </si>
-  <si>
     <t>PlakSirketleri</t>
   </si>
   <si>
@@ -205,39 +193,34 @@
     <t>Users</t>
   </si>
   <si>
-    <t>User Music List</t>
-  </si>
-  <si>
-    <t>UserRev_ID</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
     <t>SM_DB</t>
   </si>
   <si>
-    <t>true</t>
+    <t>AlbumTopPuan</t>
+  </si>
+  <si>
+    <t>Oylanma Sayısı</t>
+  </si>
+  <si>
+    <t>Ortalama Puan</t>
+  </si>
+  <si>
+    <t>UyePlaylist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +368,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
       </patternFill>
     </fill>
@@ -400,8 +377,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -461,143 +450,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="14" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="%20 - Vurgu1" xfId="12" builtinId="30"/>
-    <cellStyle name="%20 - Vurgu2" xfId="14" builtinId="34"/>
-    <cellStyle name="%20 - Vurgu6" xfId="16" builtinId="50"/>
+    <cellStyle name="%20 - Vurgu6" xfId="15" builtinId="50"/>
     <cellStyle name="%40 - Vurgu4" xfId="13" builtinId="43"/>
     <cellStyle name="%40 - Vurgu5" xfId="9" builtinId="47"/>
+    <cellStyle name="%60 - Vurgu1" xfId="16" builtinId="32"/>
+    <cellStyle name="%60 - Vurgu5" xfId="17" builtinId="48"/>
     <cellStyle name="%60 - Vurgu6" xfId="10" builtinId="52"/>
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Köprü" xfId="11" builtinId="8"/>
@@ -609,7 +626,7 @@
     <cellStyle name="Vurgu3" xfId="6" builtinId="37"/>
     <cellStyle name="Vurgu4" xfId="7" builtinId="41"/>
     <cellStyle name="Vurgu5" xfId="8" builtinId="45"/>
-    <cellStyle name="Vurgu6" xfId="15" builtinId="49"/>
+    <cellStyle name="Vurgu6" xfId="14" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -914,7 +931,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,53 +939,53 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="33"/>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1032,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1040,7 +1057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1048,29 +1065,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
       <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
@@ -1080,26 +1096,26 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>44</v>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -1109,44 +1125,44 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="8">
-        <v>2</v>
+      <c r="G12" s="5">
+        <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>62</v>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -1155,23 +1171,22 @@
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
       <c r="H16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1192,13 +1207,13 @@
       <c r="G17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>43</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -1210,15 +1225,12 @@
       <c r="N17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>1</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1236,107 +1248,107 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="F20" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="15"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
@@ -1347,31 +1359,37 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="N25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -1382,27 +1400,33 @@
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="41">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="9">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -1413,33 +1437,39 @@
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
       <c r="I29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
+        <v>59</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
       <c r="M29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1449,22 +1479,22 @@
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>47</v>
+      <c r="D30" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -1474,7 +1504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>1</v>
       </c>
@@ -1484,22 +1514,22 @@
       <c r="C31" s="9">
         <v>1</v>
       </c>
-      <c r="D31" s="19">
-        <v>199</v>
+      <c r="D31" s="17">
+        <v>1999</v>
       </c>
       <c r="E31" s="3">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
         <v>13</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="J31" s="20"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="7"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>1</v>
       </c>
@@ -1509,85 +1539,86 @@
       <c r="C32" s="9">
         <v>1</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
+      <c r="A34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
+        <v>59</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="33" t="s">
-        <v>58</v>
+      <c r="I35" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="G36" s="32"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="33"/>
+      <c r="I36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1"/>

--- a/SMDB.xlsx
+++ b/SMDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>YoneticiTurleri</t>
   </si>
@@ -175,12 +175,6 @@
     <t>Telefon</t>
   </si>
   <si>
-    <t>AlbumSirket</t>
-  </si>
-  <si>
-    <t>Sirket_ID</t>
-  </si>
-  <si>
     <t>Muzik Sayısı</t>
   </si>
   <si>
@@ -209,18 +203,29 @@
   </si>
   <si>
     <t>UyePlaylist</t>
+  </si>
+  <si>
+    <t>Şirket_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +374,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -460,161 +459,155 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="14" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="17" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="17">
     <cellStyle name="%20 - Vurgu1" xfId="12" builtinId="30"/>
-    <cellStyle name="%20 - Vurgu6" xfId="15" builtinId="50"/>
     <cellStyle name="%40 - Vurgu4" xfId="13" builtinId="43"/>
     <cellStyle name="%40 - Vurgu5" xfId="9" builtinId="47"/>
-    <cellStyle name="%60 - Vurgu1" xfId="16" builtinId="32"/>
-    <cellStyle name="%60 - Vurgu5" xfId="17" builtinId="48"/>
+    <cellStyle name="%60 - Vurgu1" xfId="15" builtinId="32"/>
+    <cellStyle name="%60 - Vurgu5" xfId="16" builtinId="48"/>
     <cellStyle name="%60 - Vurgu6" xfId="10" builtinId="52"/>
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Köprü" xfId="11" builtinId="8"/>
@@ -930,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,36 +946,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="24"/>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1066,24 +1059,24 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+        <v>57</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1161,28 +1154,28 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
       <c r="H16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
+      <c r="I16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1258,23 +1251,23 @@
       <c r="N18" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
+        <v>57</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M20" s="15"/>
     </row>
@@ -1291,10 +1284,10 @@
       <c r="D21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="47" t="s">
+      <c r="H21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -1313,39 +1306,39 @@
         <v>1</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="5"/>
       <c r="K22" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="46"/>
+      <c r="I24" s="33"/>
       <c r="J24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="44"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
       <c r="P24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1359,15 +1352,15 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -1408,7 +1401,7 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="20">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -1447,26 +1440,27 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="26" t="s">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
-      <c r="M29" t="s">
-        <v>59</v>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="N29" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1483,24 +1477,27 @@
         <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="I30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1525,9 +1522,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="5"/>
+      <c r="I31" s="19"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -1544,29 +1542,25 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="I32" s="19"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1581,32 +1575,21 @@
       <c r="E35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="K29:M29"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:L4"/>
-    <mergeCell ref="G34:I34"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="K24:O24"/>
     <mergeCell ref="H24:I24"/>
@@ -1614,10 +1597,8 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="I16:N16"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A29:H29"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="E10:J10"/>
-    <mergeCell ref="J29:L29"/>
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
